--- a/Project/Scrum Board.xlsx
+++ b/Project/Scrum Board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1F5C91-2A4B-4B28-A1B0-8667CC878F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5292F7-7464-46AC-A574-4770EA4DF200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C5E49483-BBFD-49C2-89D7-69A0053B80EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C5E49483-BBFD-49C2-89D7-69A0053B80EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Backlog</t>
   </si>
@@ -54,52 +54,48 @@
     <t>Done</t>
   </si>
   <si>
-    <t>(1) Review and improve identified design patterns and descriptions</t>
-  </si>
-  <si>
-    <t>US1: As a team, we'd want to complete this project before the assigned deadline</t>
-  </si>
-  <si>
     <t>US2: As a team member, I'd want to finish my assigned task so our project goes along smoothly</t>
   </si>
   <si>
     <t>To Do</t>
+  </si>
+  <si>
+    <t>US3:As a team member, I must create a Use Case diagram and also collect Metrics so we can analyse the project's functionalities</t>
   </si>
   <si>
     <t>US1: As a team, we'd want to complete this project before the assigned deadline. 
 ----------------------------------
-As a team, we must include 15 code smells and 15 design patterns into our report, whilst updating our Git's repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) Create git repository
-(2) Upload our tasks as we finish them
+As a team, we must include 5 Use Case Diagrams and 5 Metric Sets into our report, whilst updating our Git's repository</t>
+  </si>
+  <si>
+    <t>(1) Create Use Case Diagrams about functionalities present in the project;
+(2) Collect and analyse Metrics;</t>
+  </si>
+  <si>
+    <t>Review teammate's Use Case diagrams and Metrics analysis</t>
+  </si>
+  <si>
+    <t>US1: As a team, we must think of new functionalities to implement into GanttProject so we complete this project before the assigned deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Setup GanttProject;
+(2) Create User Stories of new functionalities; 
+(3) Implement new functionalities into GanttProject
 </t>
   </si>
   <si>
-    <t>(1) review 3 Code Smells from colleagues
-(2) review 3 Design Patterns from colleagues</t>
-  </si>
-  <si>
-    <t>(1) forked the repository; (2) cloned the repository; (3) reviewed colleague's Code Smells and GoFs patterns</t>
-  </si>
-  <si>
-    <t>(1) fork the repository;
- (2) clone the repository; 
-(3) build the project on the local copies</t>
-  </si>
-  <si>
-    <t>US3:As a team member, I must review identified GoF design patterns and code smells</t>
-  </si>
-  <si>
-    <t>Identify code smells</t>
-  </si>
-  <si>
-    <t>Identify GoF design patterns</t>
-  </si>
-  <si>
-    <t>(1) Identify design patterns;
-(2) Description of the found design patterns; 
-(3) Decription of code smells</t>
+    <t>(1) Setting up GanttProject;
+ (2) Create User Stories for new functionalities;
+(3) Code the functionalities present on the User Stories</t>
+  </si>
+  <si>
+    <t>(1) Review a Colleague's Use Case Diagram
+(2) Review a Colleague's Metrics analysis</t>
+  </si>
+  <si>
+    <t>(1) Set up GanttProject;
+ (2) Implemented new functionalities;
+ (3) Reviewed a Colleague«s Use Case Diagram and their Metrics analysis</t>
   </si>
 </sst>
 </file>
@@ -538,7 +534,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -548,208 +544,208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33AC9C3-978A-44F2-BAC2-CA4716E9D914}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="0.140625" style="5" customWidth="1"/>
-    <col min="3" max="14" width="24.7109375" style="5" customWidth="1"/>
-    <col min="15" max="257" width="12.5703125" style="5" customWidth="1"/>
-    <col min="258" max="258" width="0.140625" style="5" customWidth="1"/>
-    <col min="259" max="270" width="24.7109375" style="5" customWidth="1"/>
-    <col min="271" max="513" width="12.5703125" style="5" customWidth="1"/>
-    <col min="514" max="514" width="0.140625" style="5" customWidth="1"/>
-    <col min="515" max="526" width="24.7109375" style="5" customWidth="1"/>
-    <col min="527" max="769" width="12.5703125" style="5" customWidth="1"/>
-    <col min="770" max="770" width="0.140625" style="5" customWidth="1"/>
-    <col min="771" max="782" width="24.7109375" style="5" customWidth="1"/>
-    <col min="783" max="1025" width="12.5703125" style="5" customWidth="1"/>
-    <col min="1026" max="1026" width="0.140625" style="5" customWidth="1"/>
-    <col min="1027" max="1038" width="24.7109375" style="5" customWidth="1"/>
-    <col min="1039" max="1281" width="12.5703125" style="5" customWidth="1"/>
-    <col min="1282" max="1282" width="0.140625" style="5" customWidth="1"/>
-    <col min="1283" max="1294" width="24.7109375" style="5" customWidth="1"/>
-    <col min="1295" max="1537" width="12.5703125" style="5" customWidth="1"/>
-    <col min="1538" max="1538" width="0.140625" style="5" customWidth="1"/>
-    <col min="1539" max="1550" width="24.7109375" style="5" customWidth="1"/>
-    <col min="1551" max="1793" width="12.5703125" style="5" customWidth="1"/>
-    <col min="1794" max="1794" width="0.140625" style="5" customWidth="1"/>
-    <col min="1795" max="1806" width="24.7109375" style="5" customWidth="1"/>
-    <col min="1807" max="2049" width="12.5703125" style="5" customWidth="1"/>
-    <col min="2050" max="2050" width="0.140625" style="5" customWidth="1"/>
-    <col min="2051" max="2062" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2063" max="2305" width="12.5703125" style="5" customWidth="1"/>
-    <col min="2306" max="2306" width="0.140625" style="5" customWidth="1"/>
-    <col min="2307" max="2318" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2319" max="2561" width="12.5703125" style="5" customWidth="1"/>
-    <col min="2562" max="2562" width="0.140625" style="5" customWidth="1"/>
-    <col min="2563" max="2574" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2575" max="2817" width="12.5703125" style="5" customWidth="1"/>
-    <col min="2818" max="2818" width="0.140625" style="5" customWidth="1"/>
-    <col min="2819" max="2830" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2831" max="3073" width="12.5703125" style="5" customWidth="1"/>
-    <col min="3074" max="3074" width="0.140625" style="5" customWidth="1"/>
-    <col min="3075" max="3086" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3087" max="3329" width="12.5703125" style="5" customWidth="1"/>
-    <col min="3330" max="3330" width="0.140625" style="5" customWidth="1"/>
-    <col min="3331" max="3342" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3343" max="3585" width="12.5703125" style="5" customWidth="1"/>
-    <col min="3586" max="3586" width="0.140625" style="5" customWidth="1"/>
-    <col min="3587" max="3598" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3599" max="3841" width="12.5703125" style="5" customWidth="1"/>
-    <col min="3842" max="3842" width="0.140625" style="5" customWidth="1"/>
-    <col min="3843" max="3854" width="24.7109375" style="5" customWidth="1"/>
-    <col min="3855" max="4097" width="12.5703125" style="5" customWidth="1"/>
-    <col min="4098" max="4098" width="0.140625" style="5" customWidth="1"/>
-    <col min="4099" max="4110" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4111" max="4353" width="12.5703125" style="5" customWidth="1"/>
-    <col min="4354" max="4354" width="0.140625" style="5" customWidth="1"/>
-    <col min="4355" max="4366" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4367" max="4609" width="12.5703125" style="5" customWidth="1"/>
-    <col min="4610" max="4610" width="0.140625" style="5" customWidth="1"/>
-    <col min="4611" max="4622" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4623" max="4865" width="12.5703125" style="5" customWidth="1"/>
-    <col min="4866" max="4866" width="0.140625" style="5" customWidth="1"/>
-    <col min="4867" max="4878" width="24.7109375" style="5" customWidth="1"/>
-    <col min="4879" max="5121" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5122" max="5122" width="0.140625" style="5" customWidth="1"/>
-    <col min="5123" max="5134" width="24.7109375" style="5" customWidth="1"/>
-    <col min="5135" max="5377" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5378" max="5378" width="0.140625" style="5" customWidth="1"/>
-    <col min="5379" max="5390" width="24.7109375" style="5" customWidth="1"/>
-    <col min="5391" max="5633" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5634" max="5634" width="0.140625" style="5" customWidth="1"/>
-    <col min="5635" max="5646" width="24.7109375" style="5" customWidth="1"/>
-    <col min="5647" max="5889" width="12.5703125" style="5" customWidth="1"/>
-    <col min="5890" max="5890" width="0.140625" style="5" customWidth="1"/>
-    <col min="5891" max="5902" width="24.7109375" style="5" customWidth="1"/>
-    <col min="5903" max="6145" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6146" max="6146" width="0.140625" style="5" customWidth="1"/>
-    <col min="6147" max="6158" width="24.7109375" style="5" customWidth="1"/>
-    <col min="6159" max="6401" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6402" max="6402" width="0.140625" style="5" customWidth="1"/>
-    <col min="6403" max="6414" width="24.7109375" style="5" customWidth="1"/>
-    <col min="6415" max="6657" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6658" max="6658" width="0.140625" style="5" customWidth="1"/>
-    <col min="6659" max="6670" width="24.7109375" style="5" customWidth="1"/>
-    <col min="6671" max="6913" width="12.5703125" style="5" customWidth="1"/>
-    <col min="6914" max="6914" width="0.140625" style="5" customWidth="1"/>
-    <col min="6915" max="6926" width="24.7109375" style="5" customWidth="1"/>
-    <col min="6927" max="7169" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7170" max="7170" width="0.140625" style="5" customWidth="1"/>
-    <col min="7171" max="7182" width="24.7109375" style="5" customWidth="1"/>
-    <col min="7183" max="7425" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7426" max="7426" width="0.140625" style="5" customWidth="1"/>
-    <col min="7427" max="7438" width="24.7109375" style="5" customWidth="1"/>
-    <col min="7439" max="7681" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7682" max="7682" width="0.140625" style="5" customWidth="1"/>
-    <col min="7683" max="7694" width="24.7109375" style="5" customWidth="1"/>
-    <col min="7695" max="7937" width="12.5703125" style="5" customWidth="1"/>
-    <col min="7938" max="7938" width="0.140625" style="5" customWidth="1"/>
-    <col min="7939" max="7950" width="24.7109375" style="5" customWidth="1"/>
-    <col min="7951" max="8193" width="12.5703125" style="5" customWidth="1"/>
-    <col min="8194" max="8194" width="0.140625" style="5" customWidth="1"/>
-    <col min="8195" max="8206" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8207" max="8449" width="12.5703125" style="5" customWidth="1"/>
-    <col min="8450" max="8450" width="0.140625" style="5" customWidth="1"/>
-    <col min="8451" max="8462" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8463" max="8705" width="12.5703125" style="5" customWidth="1"/>
-    <col min="8706" max="8706" width="0.140625" style="5" customWidth="1"/>
-    <col min="8707" max="8718" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8719" max="8961" width="12.5703125" style="5" customWidth="1"/>
-    <col min="8962" max="8962" width="0.140625" style="5" customWidth="1"/>
-    <col min="8963" max="8974" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8975" max="9217" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9218" max="9218" width="0.140625" style="5" customWidth="1"/>
-    <col min="9219" max="9230" width="24.7109375" style="5" customWidth="1"/>
-    <col min="9231" max="9473" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9474" max="9474" width="0.140625" style="5" customWidth="1"/>
-    <col min="9475" max="9486" width="24.7109375" style="5" customWidth="1"/>
-    <col min="9487" max="9729" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9730" max="9730" width="0.140625" style="5" customWidth="1"/>
-    <col min="9731" max="9742" width="24.7109375" style="5" customWidth="1"/>
-    <col min="9743" max="9985" width="12.5703125" style="5" customWidth="1"/>
-    <col min="9986" max="9986" width="0.140625" style="5" customWidth="1"/>
-    <col min="9987" max="9998" width="24.7109375" style="5" customWidth="1"/>
-    <col min="9999" max="10241" width="12.5703125" style="5" customWidth="1"/>
-    <col min="10242" max="10242" width="0.140625" style="5" customWidth="1"/>
-    <col min="10243" max="10254" width="24.7109375" style="5" customWidth="1"/>
-    <col min="10255" max="10497" width="12.5703125" style="5" customWidth="1"/>
-    <col min="10498" max="10498" width="0.140625" style="5" customWidth="1"/>
-    <col min="10499" max="10510" width="24.7109375" style="5" customWidth="1"/>
-    <col min="10511" max="10753" width="12.5703125" style="5" customWidth="1"/>
-    <col min="10754" max="10754" width="0.140625" style="5" customWidth="1"/>
-    <col min="10755" max="10766" width="24.7109375" style="5" customWidth="1"/>
-    <col min="10767" max="11009" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11010" max="11010" width="0.140625" style="5" customWidth="1"/>
-    <col min="11011" max="11022" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11023" max="11265" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11266" max="11266" width="0.140625" style="5" customWidth="1"/>
-    <col min="11267" max="11278" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11279" max="11521" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11522" max="11522" width="0.140625" style="5" customWidth="1"/>
-    <col min="11523" max="11534" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11535" max="11777" width="12.5703125" style="5" customWidth="1"/>
-    <col min="11778" max="11778" width="0.140625" style="5" customWidth="1"/>
-    <col min="11779" max="11790" width="24.7109375" style="5" customWidth="1"/>
-    <col min="11791" max="12033" width="12.5703125" style="5" customWidth="1"/>
-    <col min="12034" max="12034" width="0.140625" style="5" customWidth="1"/>
-    <col min="12035" max="12046" width="24.7109375" style="5" customWidth="1"/>
-    <col min="12047" max="12289" width="12.5703125" style="5" customWidth="1"/>
-    <col min="12290" max="12290" width="0.140625" style="5" customWidth="1"/>
-    <col min="12291" max="12302" width="24.7109375" style="5" customWidth="1"/>
-    <col min="12303" max="12545" width="12.5703125" style="5" customWidth="1"/>
-    <col min="12546" max="12546" width="0.140625" style="5" customWidth="1"/>
-    <col min="12547" max="12558" width="24.7109375" style="5" customWidth="1"/>
-    <col min="12559" max="12801" width="12.5703125" style="5" customWidth="1"/>
-    <col min="12802" max="12802" width="0.140625" style="5" customWidth="1"/>
-    <col min="12803" max="12814" width="24.7109375" style="5" customWidth="1"/>
-    <col min="12815" max="13057" width="12.5703125" style="5" customWidth="1"/>
-    <col min="13058" max="13058" width="0.140625" style="5" customWidth="1"/>
-    <col min="13059" max="13070" width="24.7109375" style="5" customWidth="1"/>
-    <col min="13071" max="13313" width="12.5703125" style="5" customWidth="1"/>
-    <col min="13314" max="13314" width="0.140625" style="5" customWidth="1"/>
-    <col min="13315" max="13326" width="24.7109375" style="5" customWidth="1"/>
-    <col min="13327" max="13569" width="12.5703125" style="5" customWidth="1"/>
-    <col min="13570" max="13570" width="0.140625" style="5" customWidth="1"/>
-    <col min="13571" max="13582" width="24.7109375" style="5" customWidth="1"/>
-    <col min="13583" max="13825" width="12.5703125" style="5" customWidth="1"/>
-    <col min="13826" max="13826" width="0.140625" style="5" customWidth="1"/>
-    <col min="13827" max="13838" width="24.7109375" style="5" customWidth="1"/>
-    <col min="13839" max="14081" width="12.5703125" style="5" customWidth="1"/>
-    <col min="14082" max="14082" width="0.140625" style="5" customWidth="1"/>
-    <col min="14083" max="14094" width="24.7109375" style="5" customWidth="1"/>
-    <col min="14095" max="14337" width="12.5703125" style="5" customWidth="1"/>
-    <col min="14338" max="14338" width="0.140625" style="5" customWidth="1"/>
-    <col min="14339" max="14350" width="24.7109375" style="5" customWidth="1"/>
-    <col min="14351" max="14593" width="12.5703125" style="5" customWidth="1"/>
-    <col min="14594" max="14594" width="0.140625" style="5" customWidth="1"/>
-    <col min="14595" max="14606" width="24.7109375" style="5" customWidth="1"/>
-    <col min="14607" max="14849" width="12.5703125" style="5" customWidth="1"/>
-    <col min="14850" max="14850" width="0.140625" style="5" customWidth="1"/>
-    <col min="14851" max="14862" width="24.7109375" style="5" customWidth="1"/>
-    <col min="14863" max="15105" width="12.5703125" style="5" customWidth="1"/>
-    <col min="15106" max="15106" width="0.140625" style="5" customWidth="1"/>
-    <col min="15107" max="15118" width="24.7109375" style="5" customWidth="1"/>
-    <col min="15119" max="15361" width="12.5703125" style="5" customWidth="1"/>
-    <col min="15362" max="15362" width="0.140625" style="5" customWidth="1"/>
-    <col min="15363" max="15374" width="24.7109375" style="5" customWidth="1"/>
-    <col min="15375" max="15617" width="12.5703125" style="5" customWidth="1"/>
-    <col min="15618" max="15618" width="0.140625" style="5" customWidth="1"/>
-    <col min="15619" max="15630" width="24.7109375" style="5" customWidth="1"/>
-    <col min="15631" max="15873" width="12.5703125" style="5" customWidth="1"/>
-    <col min="15874" max="15874" width="0.140625" style="5" customWidth="1"/>
-    <col min="15875" max="15886" width="24.7109375" style="5" customWidth="1"/>
-    <col min="15887" max="16129" width="12.5703125" style="5" customWidth="1"/>
-    <col min="16130" max="16130" width="0.140625" style="5" customWidth="1"/>
-    <col min="16131" max="16142" width="24.7109375" style="5" customWidth="1"/>
-    <col min="16143" max="16384" width="12.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="0.109375" style="5" customWidth="1"/>
+    <col min="3" max="14" width="24.6640625" style="5" customWidth="1"/>
+    <col min="15" max="257" width="12.5546875" style="5" customWidth="1"/>
+    <col min="258" max="258" width="0.109375" style="5" customWidth="1"/>
+    <col min="259" max="270" width="24.6640625" style="5" customWidth="1"/>
+    <col min="271" max="513" width="12.5546875" style="5" customWidth="1"/>
+    <col min="514" max="514" width="0.109375" style="5" customWidth="1"/>
+    <col min="515" max="526" width="24.6640625" style="5" customWidth="1"/>
+    <col min="527" max="769" width="12.5546875" style="5" customWidth="1"/>
+    <col min="770" max="770" width="0.109375" style="5" customWidth="1"/>
+    <col min="771" max="782" width="24.6640625" style="5" customWidth="1"/>
+    <col min="783" max="1025" width="12.5546875" style="5" customWidth="1"/>
+    <col min="1026" max="1026" width="0.109375" style="5" customWidth="1"/>
+    <col min="1027" max="1038" width="24.6640625" style="5" customWidth="1"/>
+    <col min="1039" max="1281" width="12.5546875" style="5" customWidth="1"/>
+    <col min="1282" max="1282" width="0.109375" style="5" customWidth="1"/>
+    <col min="1283" max="1294" width="24.6640625" style="5" customWidth="1"/>
+    <col min="1295" max="1537" width="12.5546875" style="5" customWidth="1"/>
+    <col min="1538" max="1538" width="0.109375" style="5" customWidth="1"/>
+    <col min="1539" max="1550" width="24.6640625" style="5" customWidth="1"/>
+    <col min="1551" max="1793" width="12.5546875" style="5" customWidth="1"/>
+    <col min="1794" max="1794" width="0.109375" style="5" customWidth="1"/>
+    <col min="1795" max="1806" width="24.6640625" style="5" customWidth="1"/>
+    <col min="1807" max="2049" width="12.5546875" style="5" customWidth="1"/>
+    <col min="2050" max="2050" width="0.109375" style="5" customWidth="1"/>
+    <col min="2051" max="2062" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2063" max="2305" width="12.5546875" style="5" customWidth="1"/>
+    <col min="2306" max="2306" width="0.109375" style="5" customWidth="1"/>
+    <col min="2307" max="2318" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2319" max="2561" width="12.5546875" style="5" customWidth="1"/>
+    <col min="2562" max="2562" width="0.109375" style="5" customWidth="1"/>
+    <col min="2563" max="2574" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2575" max="2817" width="12.5546875" style="5" customWidth="1"/>
+    <col min="2818" max="2818" width="0.109375" style="5" customWidth="1"/>
+    <col min="2819" max="2830" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2831" max="3073" width="12.5546875" style="5" customWidth="1"/>
+    <col min="3074" max="3074" width="0.109375" style="5" customWidth="1"/>
+    <col min="3075" max="3086" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3087" max="3329" width="12.5546875" style="5" customWidth="1"/>
+    <col min="3330" max="3330" width="0.109375" style="5" customWidth="1"/>
+    <col min="3331" max="3342" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3343" max="3585" width="12.5546875" style="5" customWidth="1"/>
+    <col min="3586" max="3586" width="0.109375" style="5" customWidth="1"/>
+    <col min="3587" max="3598" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3599" max="3841" width="12.5546875" style="5" customWidth="1"/>
+    <col min="3842" max="3842" width="0.109375" style="5" customWidth="1"/>
+    <col min="3843" max="3854" width="24.6640625" style="5" customWidth="1"/>
+    <col min="3855" max="4097" width="12.5546875" style="5" customWidth="1"/>
+    <col min="4098" max="4098" width="0.109375" style="5" customWidth="1"/>
+    <col min="4099" max="4110" width="24.6640625" style="5" customWidth="1"/>
+    <col min="4111" max="4353" width="12.5546875" style="5" customWidth="1"/>
+    <col min="4354" max="4354" width="0.109375" style="5" customWidth="1"/>
+    <col min="4355" max="4366" width="24.6640625" style="5" customWidth="1"/>
+    <col min="4367" max="4609" width="12.5546875" style="5" customWidth="1"/>
+    <col min="4610" max="4610" width="0.109375" style="5" customWidth="1"/>
+    <col min="4611" max="4622" width="24.6640625" style="5" customWidth="1"/>
+    <col min="4623" max="4865" width="12.5546875" style="5" customWidth="1"/>
+    <col min="4866" max="4866" width="0.109375" style="5" customWidth="1"/>
+    <col min="4867" max="4878" width="24.6640625" style="5" customWidth="1"/>
+    <col min="4879" max="5121" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5122" max="5122" width="0.109375" style="5" customWidth="1"/>
+    <col min="5123" max="5134" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5135" max="5377" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5378" max="5378" width="0.109375" style="5" customWidth="1"/>
+    <col min="5379" max="5390" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5391" max="5633" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5634" max="5634" width="0.109375" style="5" customWidth="1"/>
+    <col min="5635" max="5646" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5647" max="5889" width="12.5546875" style="5" customWidth="1"/>
+    <col min="5890" max="5890" width="0.109375" style="5" customWidth="1"/>
+    <col min="5891" max="5902" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5903" max="6145" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6146" max="6146" width="0.109375" style="5" customWidth="1"/>
+    <col min="6147" max="6158" width="24.6640625" style="5" customWidth="1"/>
+    <col min="6159" max="6401" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6402" max="6402" width="0.109375" style="5" customWidth="1"/>
+    <col min="6403" max="6414" width="24.6640625" style="5" customWidth="1"/>
+    <col min="6415" max="6657" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6658" max="6658" width="0.109375" style="5" customWidth="1"/>
+    <col min="6659" max="6670" width="24.6640625" style="5" customWidth="1"/>
+    <col min="6671" max="6913" width="12.5546875" style="5" customWidth="1"/>
+    <col min="6914" max="6914" width="0.109375" style="5" customWidth="1"/>
+    <col min="6915" max="6926" width="24.6640625" style="5" customWidth="1"/>
+    <col min="6927" max="7169" width="12.5546875" style="5" customWidth="1"/>
+    <col min="7170" max="7170" width="0.109375" style="5" customWidth="1"/>
+    <col min="7171" max="7182" width="24.6640625" style="5" customWidth="1"/>
+    <col min="7183" max="7425" width="12.5546875" style="5" customWidth="1"/>
+    <col min="7426" max="7426" width="0.109375" style="5" customWidth="1"/>
+    <col min="7427" max="7438" width="24.6640625" style="5" customWidth="1"/>
+    <col min="7439" max="7681" width="12.5546875" style="5" customWidth="1"/>
+    <col min="7682" max="7682" width="0.109375" style="5" customWidth="1"/>
+    <col min="7683" max="7694" width="24.6640625" style="5" customWidth="1"/>
+    <col min="7695" max="7937" width="12.5546875" style="5" customWidth="1"/>
+    <col min="7938" max="7938" width="0.109375" style="5" customWidth="1"/>
+    <col min="7939" max="7950" width="24.6640625" style="5" customWidth="1"/>
+    <col min="7951" max="8193" width="12.5546875" style="5" customWidth="1"/>
+    <col min="8194" max="8194" width="0.109375" style="5" customWidth="1"/>
+    <col min="8195" max="8206" width="24.6640625" style="5" customWidth="1"/>
+    <col min="8207" max="8449" width="12.5546875" style="5" customWidth="1"/>
+    <col min="8450" max="8450" width="0.109375" style="5" customWidth="1"/>
+    <col min="8451" max="8462" width="24.6640625" style="5" customWidth="1"/>
+    <col min="8463" max="8705" width="12.5546875" style="5" customWidth="1"/>
+    <col min="8706" max="8706" width="0.109375" style="5" customWidth="1"/>
+    <col min="8707" max="8718" width="24.6640625" style="5" customWidth="1"/>
+    <col min="8719" max="8961" width="12.5546875" style="5" customWidth="1"/>
+    <col min="8962" max="8962" width="0.109375" style="5" customWidth="1"/>
+    <col min="8963" max="8974" width="24.6640625" style="5" customWidth="1"/>
+    <col min="8975" max="9217" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9218" max="9218" width="0.109375" style="5" customWidth="1"/>
+    <col min="9219" max="9230" width="24.6640625" style="5" customWidth="1"/>
+    <col min="9231" max="9473" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9474" max="9474" width="0.109375" style="5" customWidth="1"/>
+    <col min="9475" max="9486" width="24.6640625" style="5" customWidth="1"/>
+    <col min="9487" max="9729" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9730" max="9730" width="0.109375" style="5" customWidth="1"/>
+    <col min="9731" max="9742" width="24.6640625" style="5" customWidth="1"/>
+    <col min="9743" max="9985" width="12.5546875" style="5" customWidth="1"/>
+    <col min="9986" max="9986" width="0.109375" style="5" customWidth="1"/>
+    <col min="9987" max="9998" width="24.6640625" style="5" customWidth="1"/>
+    <col min="9999" max="10241" width="12.5546875" style="5" customWidth="1"/>
+    <col min="10242" max="10242" width="0.109375" style="5" customWidth="1"/>
+    <col min="10243" max="10254" width="24.6640625" style="5" customWidth="1"/>
+    <col min="10255" max="10497" width="12.5546875" style="5" customWidth="1"/>
+    <col min="10498" max="10498" width="0.109375" style="5" customWidth="1"/>
+    <col min="10499" max="10510" width="24.6640625" style="5" customWidth="1"/>
+    <col min="10511" max="10753" width="12.5546875" style="5" customWidth="1"/>
+    <col min="10754" max="10754" width="0.109375" style="5" customWidth="1"/>
+    <col min="10755" max="10766" width="24.6640625" style="5" customWidth="1"/>
+    <col min="10767" max="11009" width="12.5546875" style="5" customWidth="1"/>
+    <col min="11010" max="11010" width="0.109375" style="5" customWidth="1"/>
+    <col min="11011" max="11022" width="24.6640625" style="5" customWidth="1"/>
+    <col min="11023" max="11265" width="12.5546875" style="5" customWidth="1"/>
+    <col min="11266" max="11266" width="0.109375" style="5" customWidth="1"/>
+    <col min="11267" max="11278" width="24.6640625" style="5" customWidth="1"/>
+    <col min="11279" max="11521" width="12.5546875" style="5" customWidth="1"/>
+    <col min="11522" max="11522" width="0.109375" style="5" customWidth="1"/>
+    <col min="11523" max="11534" width="24.6640625" style="5" customWidth="1"/>
+    <col min="11535" max="11777" width="12.5546875" style="5" customWidth="1"/>
+    <col min="11778" max="11778" width="0.109375" style="5" customWidth="1"/>
+    <col min="11779" max="11790" width="24.6640625" style="5" customWidth="1"/>
+    <col min="11791" max="12033" width="12.5546875" style="5" customWidth="1"/>
+    <col min="12034" max="12034" width="0.109375" style="5" customWidth="1"/>
+    <col min="12035" max="12046" width="24.6640625" style="5" customWidth="1"/>
+    <col min="12047" max="12289" width="12.5546875" style="5" customWidth="1"/>
+    <col min="12290" max="12290" width="0.109375" style="5" customWidth="1"/>
+    <col min="12291" max="12302" width="24.6640625" style="5" customWidth="1"/>
+    <col min="12303" max="12545" width="12.5546875" style="5" customWidth="1"/>
+    <col min="12546" max="12546" width="0.109375" style="5" customWidth="1"/>
+    <col min="12547" max="12558" width="24.6640625" style="5" customWidth="1"/>
+    <col min="12559" max="12801" width="12.5546875" style="5" customWidth="1"/>
+    <col min="12802" max="12802" width="0.109375" style="5" customWidth="1"/>
+    <col min="12803" max="12814" width="24.6640625" style="5" customWidth="1"/>
+    <col min="12815" max="13057" width="12.5546875" style="5" customWidth="1"/>
+    <col min="13058" max="13058" width="0.109375" style="5" customWidth="1"/>
+    <col min="13059" max="13070" width="24.6640625" style="5" customWidth="1"/>
+    <col min="13071" max="13313" width="12.5546875" style="5" customWidth="1"/>
+    <col min="13314" max="13314" width="0.109375" style="5" customWidth="1"/>
+    <col min="13315" max="13326" width="24.6640625" style="5" customWidth="1"/>
+    <col min="13327" max="13569" width="12.5546875" style="5" customWidth="1"/>
+    <col min="13570" max="13570" width="0.109375" style="5" customWidth="1"/>
+    <col min="13571" max="13582" width="24.6640625" style="5" customWidth="1"/>
+    <col min="13583" max="13825" width="12.5546875" style="5" customWidth="1"/>
+    <col min="13826" max="13826" width="0.109375" style="5" customWidth="1"/>
+    <col min="13827" max="13838" width="24.6640625" style="5" customWidth="1"/>
+    <col min="13839" max="14081" width="12.5546875" style="5" customWidth="1"/>
+    <col min="14082" max="14082" width="0.109375" style="5" customWidth="1"/>
+    <col min="14083" max="14094" width="24.6640625" style="5" customWidth="1"/>
+    <col min="14095" max="14337" width="12.5546875" style="5" customWidth="1"/>
+    <col min="14338" max="14338" width="0.109375" style="5" customWidth="1"/>
+    <col min="14339" max="14350" width="24.6640625" style="5" customWidth="1"/>
+    <col min="14351" max="14593" width="12.5546875" style="5" customWidth="1"/>
+    <col min="14594" max="14594" width="0.109375" style="5" customWidth="1"/>
+    <col min="14595" max="14606" width="24.6640625" style="5" customWidth="1"/>
+    <col min="14607" max="14849" width="12.5546875" style="5" customWidth="1"/>
+    <col min="14850" max="14850" width="0.109375" style="5" customWidth="1"/>
+    <col min="14851" max="14862" width="24.6640625" style="5" customWidth="1"/>
+    <col min="14863" max="15105" width="12.5546875" style="5" customWidth="1"/>
+    <col min="15106" max="15106" width="0.109375" style="5" customWidth="1"/>
+    <col min="15107" max="15118" width="24.6640625" style="5" customWidth="1"/>
+    <col min="15119" max="15361" width="12.5546875" style="5" customWidth="1"/>
+    <col min="15362" max="15362" width="0.109375" style="5" customWidth="1"/>
+    <col min="15363" max="15374" width="24.6640625" style="5" customWidth="1"/>
+    <col min="15375" max="15617" width="12.5546875" style="5" customWidth="1"/>
+    <col min="15618" max="15618" width="0.109375" style="5" customWidth="1"/>
+    <col min="15619" max="15630" width="24.6640625" style="5" customWidth="1"/>
+    <col min="15631" max="15873" width="12.5546875" style="5" customWidth="1"/>
+    <col min="15874" max="15874" width="0.109375" style="5" customWidth="1"/>
+    <col min="15875" max="15886" width="24.6640625" style="5" customWidth="1"/>
+    <col min="15887" max="16129" width="12.5546875" style="5" customWidth="1"/>
+    <col min="16130" max="16130" width="0.109375" style="5" customWidth="1"/>
+    <col min="16131" max="16142" width="24.6640625" style="5" customWidth="1"/>
+    <col min="16143" max="16384" width="12.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -760,7 +756,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="6" t="s">
@@ -770,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>2</v>
@@ -788,64 +784,60 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
@@ -856,7 +848,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="3"/>
@@ -867,17 +859,18 @@
       <c r="H7" s="10"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" ht="57.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:14" ht="57.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>